--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1917256.010433769</v>
+        <v>-1920290.342510622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858977</v>
+        <v>8656875.781858983</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>129.3503097116251</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>147.2907482601406</v>
+        <v>202.028610653702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>89.06613335611728</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>65.51651982872606</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>57.32841568982911</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>20.1453221938004</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>113.7145621736547</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>154.8229679689707</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.2244945626373</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>96.48367255098572</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>257.2255671750084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>63.92285537894278</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.13188315276857</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>51.3629536688947</v>
+        <v>28.64646941602176</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>199.6810847520326</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>155.8651612894399</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004763</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>214.8467271449386</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6898441249648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352489</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561872</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>946.7754666214607</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>588.5097680147103</v>
+        <v>1472.750251000637</v>
       </c>
       <c r="E2" t="n">
-        <v>202.721515416466</v>
+        <v>1086.961998402393</v>
       </c>
       <c r="F2" t="n">
-        <v>202.721515416466</v>
+        <v>675.9760936127857</v>
       </c>
       <c r="G2" t="n">
-        <v>202.721515416466</v>
+        <v>258.0122855109726</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2259.818827398869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2112.928879900958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174274</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>630.5276477770158</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>272.2619491702653</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>272.2619491702653</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>265.3164484210618</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>962.0987983716311</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626212</v>
+        <v>962.0987983716311</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.883827626212</v>
+        <v>576.3105457733868</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>569.3650450241834</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>151.4012369223702</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,52 +5039,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,19 +5118,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.7128420558663</v>
+        <v>677.4388247656301</v>
       </c>
       <c r="C13" t="n">
-        <v>339.7766591279594</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
         <v>192.8867116300491</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1891.774925317895</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1670.008309887421</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1380.905443013065</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1126.220954807178</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1126.220954807178</v>
       </c>
       <c r="X13" t="n">
-        <v>709.6864413838521</v>
+        <v>898.2314039091602</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.361306886106</v>
+        <v>677.4388247656301</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,10 +5279,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
         <v>2593.249184644075</v>
@@ -5291,7 +5291,7 @@
         <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5370,25 +5370,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.6246893481011</v>
+        <v>590.4396319794987</v>
       </c>
       <c r="C16" t="n">
-        <v>558.6885064201942</v>
+        <v>421.5034490515918</v>
       </c>
       <c r="D16" t="n">
-        <v>558.6885064201942</v>
+        <v>271.3868096392561</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783409</v>
+        <v>992.8806759532686</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.2731541783409</v>
+        <v>772.0880968097384</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554308</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,16 +5622,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.1131475839754</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1769646560685</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560685</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1754.64540069861</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.64540069861</v>
+        <v>1385.451409643036</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.960912492723</v>
+        <v>1130.766921437149</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.543742455763</v>
+        <v>841.349751400188</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5541915577453</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7616124142152</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551628</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277716</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563069</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811476</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483398</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542177</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232737</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679681</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331038</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320206</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5868,13 +5868,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862225</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689051</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258577</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.95764238422</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783336</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>692.256258072335</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>464.2667071743176</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>243.4741280307875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277716</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563069</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811476</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483398</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542177</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232737</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679681</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113422982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113422982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9043113422982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>260.9043113422982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>260.9043113422982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931524</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501049</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626693</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208063</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838457</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858284</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113422982</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,19 +6406,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,10 +6549,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
         <v>782.5512955656818</v>
@@ -6652,10 +6652,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532431</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,16 +7570,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="L14" t="n">
-        <v>226.7688596193112</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>354.4836849406623</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836477018</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836477018</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>225.3327319090578</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28.9688027142977</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23464,7 +23464,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.8461699524991</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.4527701993262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>95.07100897767447</v>
+        <v>117.7874932305474</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>19.86786452413662</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>130.346676916173</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>71.67627119165238</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.33596413406346</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004763</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
     <row r="26">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1331196.590794456</v>
+        <v>1331196.590794457</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1331196.590794456</v>
+        <v>1331196.590794457</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1331196.590794457</v>
+        <v>1331196.590794456</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1331196.590794457</v>
+        <v>1331196.590794456</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71413.33528089312</v>
+        <v>71413.33528089308</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>79416.35737739666</v>
+      </c>
+      <c r="F2" t="n">
         <v>79416.35737739659</v>
       </c>
-      <c r="F2" t="n">
-        <v>79416.35737739662</v>
-      </c>
       <c r="G2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739663</v>
       </c>
       <c r="H2" t="n">
         <v>79416.35737739659</v>
       </c>
       <c r="I2" t="n">
-        <v>79416.35737739659</v>
+        <v>79416.35737739661</v>
       </c>
       <c r="J2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642841</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642836</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
         <v>82104.1769864284</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.118959171775108e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672259</v>
+        <v>395954.8515672232</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131186.7918361229</v>
+        <v>131186.7918361227</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709208</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709208</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975163</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="L4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="O4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371358</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371358</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732600.4138331838</v>
+        <v>-732867.6848758218</v>
       </c>
       <c r="C6" t="n">
         <v>-192961.4974694109</v>
@@ -26528,40 +26528,40 @@
         <v>-192961.4974694109</v>
       </c>
       <c r="E6" t="n">
-        <v>-765964.1828668156</v>
+        <v>-766031.3783570412</v>
       </c>
       <c r="F6" t="n">
-        <v>-38586.76887340889</v>
+        <v>-38653.96436363473</v>
       </c>
       <c r="G6" t="n">
-        <v>-38586.76887340892</v>
+        <v>-38653.9643636347</v>
       </c>
       <c r="H6" t="n">
-        <v>-38586.7688734063</v>
+        <v>-38653.96436363472</v>
       </c>
       <c r="I6" t="n">
-        <v>-38586.76887340908</v>
+        <v>-38653.9643636347</v>
       </c>
       <c r="J6" t="n">
-        <v>-429463.2983344644</v>
+        <v>-429463.2983344618</v>
       </c>
       <c r="K6" t="n">
-        <v>-33508.44676723861</v>
+        <v>-33508.44676723857</v>
       </c>
       <c r="L6" t="n">
-        <v>-33508.44676723861</v>
+        <v>-33508.44676723862</v>
       </c>
       <c r="M6" t="n">
-        <v>-163150.7616061834</v>
+        <v>-163150.7616061833</v>
       </c>
       <c r="N6" t="n">
         <v>-33508.44676723858</v>
       </c>
       <c r="O6" t="n">
-        <v>-52936.16476087035</v>
+        <v>-52936.16476087044</v>
       </c>
       <c r="P6" t="n">
-        <v>-33508.44676723859</v>
+        <v>-33508.44676723852</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.170734645643584e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483791</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492737</v>
+        <v>652.4826302492738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>147.6632217899189</v>
+        <v>121.8941621106551</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>78.24366890293363</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>356.4557543309659</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>366.0926164622532</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>53.53225892497318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>97.31467535485726</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.65155117907415</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>227.4391002133714</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>29.29743116158261</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003791</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781674</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233582</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909881</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003791</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781674</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233582</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909881</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N39" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954267</v>
       </c>
       <c r="L14" t="n">
-        <v>682.3589740116433</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>893.4048007708889</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407851</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265633</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923298</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302242</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129088</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359185</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908524</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636226</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152063</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597637</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013399</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407851</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265633</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923298</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302242</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129088</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359185</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908524</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636226</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152063</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597637</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013399</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N39" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
